--- a/biology/Zoologie/Brachypelma_boehmei/Brachypelma_boehmei.xlsx
+++ b/biology/Zoologie/Brachypelma_boehmei/Brachypelma_boehmei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachypelma boehmei est une espèce d'araignées mygalomorphes de la famille des Theraphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachypelma boehmei est une espèce d'araignées mygalomorphes de la famille des Theraphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique[1]. Elle se rencontre au Michoacán et au Guerrero.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre au Michoacán et au Guerrero.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a un thorax de couleur claire et un abdomen très sombre. Ses pattes sont noires jusqu'au deuxième segment qui est rouge ou orange. Après la mue, les couleurs sont plus prononcées.
 Une femelle adulte peut avoir une envergure de plus de 15 cm, et pèse environ une quinzaine de grammes.
@@ -576,7 +592,9 @@
           <t>En captivité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en terrariophilie.
 </t>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Schmidt &amp; Klaas, 1993 : Eine neue Brachypelma-Spezies aus Mexico Brachypelma boehmei sp. n. (Araneida: Theraphosidae: Theraphosinae). Arachnologisches Magazin, vol. 2, no 7, p. 7-15.</t>
         </is>
